--- a/estimates/mentoringBalu.xlsx
+++ b/estimates/mentoringBalu.xlsx
@@ -896,7 +896,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,5 +1009,6 @@
     <hyperlink ref="L3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>